--- a/biology/Zoologie/Hypophylla/Hypophylla.xlsx
+++ b/biology/Zoologie/Hypophylla/Hypophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypophylla est un genre d'insectes lépidoptères de la famille des Riodinidae et de la sous-famille des Riodininae. 
 Ils résident en Amérique du Sud.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836.
 </t>
@@ -543,16 +557,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hypophylla argenissa (Stoll, [1790]); présent au Costa Rica et en Colombie
-Hypophylla caldensis Callaghan, [2001]; présent en Colombie
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hypophylla argenissa (Stoll, ); présent au Costa Rica et en Colombie
+Hypophylla caldensis Callaghan, ; présent en Colombie
 Hypophylla florus (Staudinger, 1887); présent en Équateur et au Venezuela
-Hypophylla idae Callaghan, [2001]; présent en Colombie
+Hypophylla idae Callaghan, ; présent en Colombie
 Hypophylla lasthenes (Hewitson, 1870); présent au Nicaragua et à Panama.
 Hypophylla martia (Godman, 1903); présent au Costa Rica et en Colombie
-Hypophylla sudias (Hewitson, [1858]); présent au Mexique, à Panama et en Colombie.
-Hypophylla zeurippa Boisduval, [1836]; présent au Mexique et à Panama.</t>
+Hypophylla sudias (Hewitson, ); présent au Mexique, à Panama et en Colombie.
+Hypophylla zeurippa Boisduval, ; présent au Mexique et à Panama.</t>
         </is>
       </c>
     </row>
